--- a/public/archives/Specific assessment grids/Matriz de contextualización especifica Solddaor Calderero - ES.xlsx
+++ b/public/archives/Specific assessment grids/Matriz de contextualización especifica Solddaor Calderero - ES.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
   </bookViews>
   <sheets>
-    <sheet name="Parrilla de colocación específi" sheetId="1" r:id="rId1"/>
+    <sheet name="Parrilla de contextual específi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -15,6 +15,26 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="84">
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">¿Cómo definir si se ha adquirido un nivel de competencias interpersonales?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Como se indica en el protocolo de colocación y evaluación, se adquiere un nivel de competencias interpersonales si se ha observado al menos un comportamiento observable en tres ocasiones (en tres contextos diferentes y en tres momentos diferentes). Si después de 3 observaciones, el evaluador no ha podido observar el dominio de la competencia interpersonal, se le invita a continuar las sesiones de observación hasta que se valide el nivel de competencia interpersonal. Durante la observación, el evaluador sólo evalúa las competencias interpersonales: la ULO está presente para aportar elementos sobre el contexto en el que el alumno debe ser evaluado. Como algunos niveles de competencias interpersonales aparecen en más de un ULO, el evaluador es libre de observar el nivel de competencias interpersonales elegido en relación con el ULO que desee para la primera observación y luego cambiarlo para la segunda, etc. . Si el nivel de competencias interpersonales se ha observado 3 veces, y cada vez en relación con otro objetivo general de competencias, el nivel se considera adquirido.
+El evaluador no podrá evaluar más de 3 competencias interpersonales en una observación.</t>
+    </r>
+  </si>
   <si>
     <r>
       <rPr>
@@ -1091,35 +1111,15 @@
     <t>Parrilla de contextualización de Soft Skills vinculadas a : Soldador Calderero</t>
   </si>
   <si>
-    <t>Esta tabla le ayuda a evaluar el nivel de competencias interpersonales de un candidato al final de un proceso de adquisición utilizando el método de evaluación por observación recurrente en relación con la norma profesional. Este método, que se describe en el protocolo de prácticas y evaluación, consiste en observar varias veces a un alumno en situaciones de trabajo para poder atestiguar si domina o no un nivel de competencias interpersonales, todo ello en relación con un puesto de trabajo específico.
-Para ello, se utilizó el estándar ocupacional desarrollado en el marco del proyecto europeo Erasmus + LeGaQual2DO y se vincularon 4 niveles de un máximo de 4 Soft Skills a cada Unidad de Resultados de Aprendizaje (ULO). Se desarrollaron comportamientos observables vinculados a cada nivel de cada Soft Skills y se recogieron en la tabla de evaluación que figura a continuación. Estos comportamientos proporcionan al evaluador indicadores sobre si se ha dominado o no un determinado nivel de Soft Skills en una ULO concreta (algunos niveles de Soft Skills pueden aparecer en diferentes ULO).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">¿Cómo definir si se ha adquirido un nivel de Soft Skills?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-Como se indica en el protocolo de contextualización y evaluación, se adquiere un nivel de Soft Skills si se ha observado al menos un comportamiento observable en tres ocasiones (en tres contextos diferentes y en tres momentos diferentes). Si después de 3 observaciones, el evaluador no ha podido observar el dominio de la competencia interpersonal, se le invita a continuar las sesiones de observación hasta que se valide el nivel de competencia interpersonal. Durante la observación, el evaluador sólo evalúa las competencias interpersonales: la ULO está presente para aportar elementos sobre el contexto en el que el alumno debe ser evaluado. Como algunos niveles de competencias interpersonales aparecen en más de un ULO, el evaluador es libre de observar el nivel de competencias interpersonales elegido en relación con el ULO que desee para la primera observación y luego cambiarlo para la segunda, etc. . Si el nivel de Soft Skills se ha observado 3 veces, y cada vez en relación con otro objetivo general de competencias, el nivel se considera adquirido.
-El evaluador no podrá evaluar más de 3 competencias interpersonales en una observación.</t>
-    </r>
+    <t>Esta tabla le ayuda a evaluar el nivel de Soft Skills de un candidato al final de un proceso de adquisición utilizando el método de evaluación por observación recurrente en relación con la norma profesional. Este método, que se describe en el protocolo de prácticas y evaluación, consiste en observar varias veces a un alumno en situaciones de trabajo para poder atestiguar si domina o no un nivel de Soft Skills, todo ello en relación con un puesto de trabajo específico.
+Para ello, se utilizó el estándar ocupacional desarrollado en el marco del proyecto europeo Erasmus + LeGaQual2DO y se vincularon 4 niveles de un máximo de 4 Soft Skills a cada Unidad de Resultados de Aprendizaje (ULO). Se desarrollaron comportamientos observables vinculados a cada nivel de cada Soft Skills y se recogieron en la tabla de evaluación que figura a continuación. Estos comportamientos proporcionan al evaluador indicadores sobre si se ha dominado o no un determinado nivel de Soft Skills en una ULO concreta (algunos niveles de competencias interpersonales pueden aparecer en diferentes ULO).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1173,12 +1173,6 @@
       <color rgb="FF2C415C"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1225,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,12 +1269,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1563,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:Z140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:A124"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1573,7 @@
   <sheetData>
     <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1603,7 +1591,7 @@
     </row>
     <row r="6" spans="1:14" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1620,8 +1608,8 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>83</v>
+      <c r="A7" s="9" t="s">
+        <v>0</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1629,7 +1617,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -1641,7 +1629,7 @@
     </row>
     <row r="8" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -1649,7 +1637,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -1661,7 +1649,7 @@
     </row>
     <row r="9" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1679,31 +1667,31 @@
     </row>
     <row r="10" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -1723,7 +1711,7 @@
     </row>
     <row r="12" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1739,10 +1727,10 @@
     </row>
     <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1759,110 +1747,110 @@
     </row>
     <row r="14" spans="1:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M14" s="15"/>
       <c r="N14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="16"/>
       <c r="F15" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="16"/>
       <c r="I15" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" s="16"/>
       <c r="L15" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
     </row>
     <row r="17" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -1871,22 +1859,22 @@
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -1895,22 +1883,22 @@
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -2089,110 +2077,110 @@
     </row>
     <row r="30" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="16"/>
       <c r="F31" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G31" s="16"/>
       <c r="I31" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J31" s="16"/>
       <c r="L31" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="1:26" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -2201,22 +2189,22 @@
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -2225,22 +2213,22 @@
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -2419,110 +2407,110 @@
     </row>
     <row r="46" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M46" s="15"/>
       <c r="N46" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47" s="16"/>
       <c r="F47" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G47" s="16"/>
       <c r="I47" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J47" s="16"/>
       <c r="L47" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M47" s="16"/>
     </row>
-    <row r="48" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
       <c r="L48" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
     </row>
     <row r="49" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -2531,22 +2519,22 @@
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -2555,22 +2543,22 @@
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
@@ -2749,110 +2737,110 @@
     </row>
     <row r="62" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J62" s="15"/>
       <c r="K62" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M62" s="15"/>
       <c r="N62" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="16"/>
       <c r="B63" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D63" s="16"/>
       <c r="F63" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G63" s="16"/>
       <c r="I63" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J63" s="16"/>
       <c r="L63" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M63" s="16"/>
     </row>
-    <row r="64" spans="1:26" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
       <c r="L64" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
     </row>
     <row r="65" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
       <c r="F65" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
@@ -2861,22 +2849,22 @@
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -2885,22 +2873,22 @@
       <c r="A67" s="16"/>
       <c r="B67" s="17"/>
       <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
       <c r="F67" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
       <c r="L67" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
@@ -3049,7 +3037,7 @@
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
     </row>
-    <row r="77" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -3079,110 +3067,110 @@
     </row>
     <row r="78" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D78" s="15"/>
       <c r="E78" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G78" s="15"/>
       <c r="H78" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J78" s="15"/>
       <c r="K78" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M78" s="15"/>
       <c r="N78" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="B79" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D79" s="16"/>
       <c r="F79" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G79" s="16"/>
       <c r="I79" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J79" s="16"/>
       <c r="L79" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M79" s="16"/>
     </row>
-    <row r="80" spans="1:26" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="B80" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
       <c r="L80" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
     </row>
     <row r="81" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="11"/>
       <c r="L81" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
@@ -3191,22 +3179,22 @@
       <c r="A82" s="16"/>
       <c r="B82" s="17"/>
       <c r="C82" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
@@ -3215,22 +3203,22 @@
       <c r="A83" s="16"/>
       <c r="B83" s="17"/>
       <c r="C83" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
       <c r="L83" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
@@ -3409,110 +3397,110 @@
     </row>
     <row r="94" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94" s="15"/>
       <c r="E94" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G94" s="15"/>
       <c r="H94" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I94" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J94" s="15"/>
       <c r="K94" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L94" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M94" s="15"/>
       <c r="N94" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="16"/>
       <c r="B95" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D95" s="16"/>
       <c r="F95" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G95" s="16"/>
       <c r="I95" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J95" s="16"/>
       <c r="L95" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M95" s="16"/>
     </row>
-    <row r="96" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
       <c r="I96" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="16"/>
       <c r="L96" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M96" s="16"/>
       <c r="N96" s="16"/>
     </row>
     <row r="97" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
       <c r="L97" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M97" s="11"/>
       <c r="N97" s="11"/>
@@ -3521,22 +3509,22 @@
       <c r="A98" s="16"/>
       <c r="B98" s="17"/>
       <c r="C98" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
       <c r="L98" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
@@ -3545,22 +3533,22 @@
       <c r="A99" s="16"/>
       <c r="B99" s="17"/>
       <c r="C99" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
       <c r="F99" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
       <c r="L99" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
@@ -3739,110 +3727,110 @@
     </row>
     <row r="110" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J110" s="15"/>
       <c r="K110" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L110" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M110" s="15"/>
       <c r="N110" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D111" s="16"/>
       <c r="F111" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G111" s="16"/>
       <c r="I111" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J111" s="16"/>
       <c r="L111" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M111" s="16"/>
     </row>
-    <row r="112" spans="1:26" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J112" s="16"/>
       <c r="K112" s="16"/>
       <c r="L112" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M112" s="16"/>
       <c r="N112" s="16"/>
     </row>
     <row r="113" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20" t="s">
-        <v>69</v>
+      <c r="A113" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c r="F113" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
       <c r="I113" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
       <c r="L113" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M113" s="11"/>
       <c r="N113" s="11"/>
@@ -3851,22 +3839,22 @@
       <c r="A114" s="16"/>
       <c r="B114" s="17"/>
       <c r="C114" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
       <c r="L114" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M114" s="11"/>
       <c r="N114" s="11"/>
@@ -3875,22 +3863,22 @@
       <c r="A115" s="16"/>
       <c r="B115" s="17"/>
       <c r="C115" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11"/>
       <c r="F115" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
       <c r="I115" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
       <c r="L115" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M115" s="11"/>
       <c r="N115" s="11"/>
@@ -4069,110 +4057,110 @@
     </row>
     <row r="126" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G126" s="15"/>
       <c r="H126" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I126" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J126" s="15"/>
       <c r="K126" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L126" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M126" s="15"/>
       <c r="N126" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="16"/>
       <c r="B127" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D127" s="16"/>
       <c r="F127" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G127" s="16"/>
       <c r="I127" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J127" s="16"/>
       <c r="L127" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M127" s="16"/>
     </row>
-    <row r="128" spans="1:26" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="16"/>
       <c r="B128" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
       <c r="F128" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G128" s="16"/>
       <c r="H128" s="16"/>
       <c r="I128" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J128" s="16"/>
       <c r="K128" s="16"/>
       <c r="L128" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M128" s="16"/>
       <c r="N128" s="16"/>
     </row>
     <row r="129" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B129" s="17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
       <c r="L129" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M129" s="11"/>
       <c r="N129" s="11"/>
@@ -4181,22 +4169,22 @@
       <c r="A130" s="16"/>
       <c r="B130" s="17"/>
       <c r="C130" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J130" s="11"/>
       <c r="K130" s="11"/>
       <c r="L130" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M130" s="11"/>
       <c r="N130" s="11"/>
@@ -4205,22 +4193,22 @@
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="C131" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11"/>
       <c r="F131" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
       <c r="I131" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J131" s="11"/>
       <c r="K131" s="11"/>
       <c r="L131" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M131" s="11"/>
       <c r="N131" s="11"/>
